--- a/data/income_statement/2digits/size/85_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/85_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>85-Education</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>85-Education</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,644 +841,729 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1240175.36451</v>
+        <v>1263048.67423</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1358028.57611</v>
+        <v>1397261.30718</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1481719.20955</v>
+        <v>1535734.97557</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1695396.79928</v>
+        <v>1746327.61819</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2055009.05177</v>
+        <v>2096561.64561</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2375437.63553</v>
+        <v>2467186.22285</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2669967.78934</v>
+        <v>2834270.03221</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2794030.6115</v>
+        <v>3060603.41521</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>3725035.7758</v>
+        <v>3864716.39891</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4734520.41675</v>
+        <v>4757517.66535</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>5476176.977659999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5660622.95558</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>5362748.774</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1178163.62948</v>
+        <v>1202500.48007</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1290063.39778</v>
+        <v>1326696.351</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1410094.55842</v>
+        <v>1461996.23967</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1598126.5581</v>
+        <v>1651654.5742</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1945327.47594</v>
+        <v>1984630.91962</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2246997.31122</v>
+        <v>2334268.70894</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2527565.7351</v>
+        <v>2683530.07306</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2646002.00116</v>
+        <v>2884439.25105</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3512708.4369</v>
+        <v>3642487.40567</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>4416797.82433</v>
+        <v>4431020.36742</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5080822.747410001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5247083.178760001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4979741.278</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>10376.07313</v>
+        <v>10399.30077</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>12462.06975</v>
+        <v>12381.46377</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>15163.8649</v>
+        <v>14180.42259</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>26797.29352</v>
+        <v>26624.22765</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>31072.40347</v>
+        <v>33700.96466</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>37287.67522</v>
+        <v>42823.95176</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>41134.13066</v>
+        <v>45731.79795</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>47299.94178</v>
+        <v>59941.44549000001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>72254.09329</v>
+        <v>75385.32347</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>98193.96025</v>
+        <v>111398.23534</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>125206.68952</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>152772.91575</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>133659.324</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>51635.6619</v>
+        <v>50148.89339</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>55503.10858</v>
+        <v>58183.49241</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>56460.78623000001</v>
+        <v>59558.31331000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>70472.94765999999</v>
+        <v>68048.81634</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>78609.17236</v>
+        <v>78229.76132999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>91152.64908999999</v>
+        <v>90093.56215000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>101267.92358</v>
+        <v>105008.1612</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>100728.66856</v>
+        <v>116222.71867</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>140073.24561</v>
+        <v>146843.66977</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>219528.63217</v>
+        <v>215099.06259</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>270147.54073</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>260766.86107</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>249348.172</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>3263.94666</v>
+        <v>3347.51737</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>6923.156120000001</v>
+        <v>7669.729149999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>6700.674740000001</v>
+        <v>7034.407920000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>8888.296759999999</v>
+        <v>8799.83628</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>10273.63331</v>
+        <v>11513.63226</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>9599.199630000001</v>
+        <v>10607.49977</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>11655.40462</v>
+        <v>12208.66929</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>11754.2728</v>
+        <v>16608.80141</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>19560.21181</v>
+        <v>19934.15941</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>93737.09689</v>
+        <v>93288.66995999998</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>33894.64047000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>33244.77346</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>51672.371</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1726.28896</v>
+        <v>1808.65967</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>3024.94237</v>
+        <v>2998.8697</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3080.11957</v>
+        <v>2882.18007</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>5863.377369999999</v>
+        <v>5866.97065</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>5668.49148</v>
+        <v>7142.57726</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>6801.02125</v>
+        <v>7815.822430000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>7903.77873</v>
+        <v>8157.72644</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>8463.060730000001</v>
+        <v>13235.78803</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>14490.13561</v>
+        <v>14828.72534</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>20383.26542</v>
+        <v>19934.35049</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>26403.51845</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>26837.2565</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>46659.575</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1528.5886</v>
+        <v>1529.7886</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>3835.83674</v>
+        <v>3853.58109</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>3599.63135</v>
+        <v>4131.30403</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>2977.833500000001</v>
+        <v>2920.00657</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>4097.86521</v>
+        <v>3910.63822</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2420.38352</v>
+        <v>2483.42074</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3137.71845</v>
+        <v>3419.560750000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>2671.43419</v>
+        <v>2365.43845</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>4401.04468</v>
+        <v>4446.17339</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>73018.44821</v>
+        <v>73018.93621000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>6566.39015</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>6082.785089999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>4356.204</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>9.069100000000001</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>62.37700999999999</v>
+        <v>817.27836</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>20.92382</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>47.08589</v>
+        <v>12.85906</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>507.27662</v>
+        <v>460.41678</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>377.79486</v>
+        <v>308.2566</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>613.9074400000001</v>
+        <v>631.3820999999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>619.77788</v>
+        <v>1007.57493</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>669.03152</v>
+        <v>659.2606800000001</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>335.38326</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>924.73187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>324.73187</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>656.592</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1236911.41785</v>
+        <v>1259701.15686</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1351105.41999</v>
+        <v>1389591.57803</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1475018.53481</v>
+        <v>1528700.56765</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1686508.50252</v>
+        <v>1737527.78191</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2044735.41846</v>
+        <v>2085048.01335</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2365838.4359</v>
+        <v>2456578.72308</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2658312.38472</v>
+        <v>2822061.36292</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2782276.3387</v>
+        <v>3043994.6138</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>3705475.563990001</v>
+        <v>3844782.2395</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4640783.319859999</v>
+        <v>4664228.995390001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>5442282.337189999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5627378.182120001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>5311076.403</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>913744.74243</v>
+        <v>931799.24558</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1005312.41025</v>
+        <v>1033692.99723</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1110887.78978</v>
+        <v>1151679.78054</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1285116.70946</v>
+        <v>1326705.19592</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1569498.26089</v>
+        <v>1599053.53512</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1805077.06113</v>
+        <v>1865980.90872</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2011945.48713</v>
+        <v>2132635.96324</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2004935.19554</v>
+        <v>2216109.43437</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>2699822.70699</v>
+        <v>2796760.11588</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>3557770.2816</v>
+        <v>3573484.14614</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>4367005.09883</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4534422.22161</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3648961.961</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>12003.49839</v>
+        <v>11437.83296</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>10735.58333</v>
+        <v>10727.37418</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>18222.11821</v>
+        <v>20135.57671</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>17396.54351</v>
+        <v>17730.45464</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>17014.40005</v>
+        <v>18292.57954</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>20536.08859</v>
+        <v>19435.79532</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>25030.12806</v>
+        <v>25555.86007</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>22026.48564</v>
+        <v>20487.98393</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>95226.56775</v>
+        <v>96753.4638</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>91339.51918999999</v>
+        <v>101481.02047</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>88253.72761</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>97170.05196000001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>102484.842</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>78047.58603000001</v>
+        <v>79092.32669</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>52699.00833</v>
+        <v>52654.01910000001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>66238.79411</v>
+        <v>65800.31947</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>93262.68056000001</v>
+        <v>93090.18123000002</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>115602.60557</v>
+        <v>111683.78845</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>134510.83525</v>
+        <v>137167.96143</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>154132.2471</v>
+        <v>160112.34483</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>141019.98415</v>
+        <v>147903.93571</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>190593.65408</v>
+        <v>216040.31658</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>302202.36258</v>
+        <v>294407.10619</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>405413.74681</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>400553.1050800001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>355966.778</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>822219.0178799999</v>
+        <v>840002.3453900001</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>940527.5096900001</v>
+        <v>968961.2950500001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1024234.66307</v>
+        <v>1063493.97757</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1170557.36164</v>
+        <v>1211984.4363</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1428621.87257</v>
+        <v>1460899.2726</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1639728.94654</v>
+        <v>1699046.75861</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1813286.04128</v>
+        <v>1926058.22992</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1817913.16575</v>
+        <v>2018889.98746</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2391149.67829</v>
+        <v>2462324.73538</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>3143590.94437</v>
+        <v>3157057.81354</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3850421.6184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4014448.88849</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3170375.741</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1474.64013</v>
+        <v>1266.74054</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>1350.3089</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2192.21439</v>
+        <v>2249.90679</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>3900.12375</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>8259.3827</v>
+        <v>8177.89453</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>10301.19075</v>
+        <v>10330.39336</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>19497.07069</v>
+        <v>20909.52842</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>23975.56</v>
+        <v>28827.52727</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>22852.80687</v>
+        <v>21641.60012</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>20637.45546</v>
+        <v>20538.20594</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>22916.00601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>22250.17608</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>20134.6</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>323166.67542</v>
+        <v>327901.9112800001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>345793.00974</v>
+        <v>355898.5808</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>364130.74503</v>
+        <v>377020.78711</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>401391.7930599999</v>
+        <v>410822.58599</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>475237.15757</v>
+        <v>485994.47823</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>560761.37477</v>
+        <v>590597.81436</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>646366.8975900001</v>
+        <v>689425.3996799999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>777341.14316</v>
+        <v>827885.17943</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1005652.857</v>
+        <v>1048022.12362</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1083013.03826</v>
+        <v>1090744.84925</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1075277.23836</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1092955.96051</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1662114.442</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>342057.1038</v>
+        <v>345966.6819</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>376570.49039</v>
+        <v>382862.74885</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>404995.02799</v>
+        <v>415167.9374000001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>462845.26734</v>
+        <v>468471.2387</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>552646.34257</v>
+        <v>553153.0314100001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>633413.80103</v>
+        <v>645994.30752</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>731153.0147599999</v>
+        <v>761488.3821299999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>797009.8302999999</v>
+        <v>857491.41645</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1031635.13582</v>
+        <v>1050512.59482</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1270848.66841</v>
+        <v>1277607.46324</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1454397.18938</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1508036.00369</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1402830.391</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>452.44376</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1264.55512</v>
+        <v>1071.21093</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>1231.15252</v>
@@ -1592,10 +1578,10 @@
         <v>1442.57882</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>904.2261699999999</v>
+        <v>879.5794099999999</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1627.39204</v>
+        <v>1596.40201</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>5948.56909</v>
@@ -1604,208 +1590,238 @@
         <v>176.53912</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1168.48943</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3767.6249</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>9013.924000000001</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>25544.23698</v>
+        <v>26801.02303</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>23957.49225</v>
+        <v>25053.26597</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>27412.89978</v>
+        <v>27329.27075</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>32944.1612</v>
+        <v>32737.5242</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>38353.69963</v>
+        <v>38905.07483</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>46346.56447</v>
+        <v>48880.68079</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>58383.22115</v>
+        <v>59955.38649</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>54843.18665</v>
+        <v>56287.00749</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>79183.89407000001</v>
+        <v>80737.65031</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>100912.95447</v>
+        <v>116108.46222</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>104061.70744</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>117312.97939</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>100114.881</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>316060.42306</v>
+        <v>318713.21511</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>351348.44302</v>
+        <v>356738.27195</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>376350.9756900001</v>
+        <v>386607.51413</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>428918.55221</v>
+        <v>434751.16057</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>512788.00934</v>
+        <v>512743.32298</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>585624.6577400001</v>
+        <v>595671.0479100001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>671865.5674399999</v>
+        <v>700653.41623</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>740539.25161</v>
+        <v>799608.0069500001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>946502.67266</v>
+        <v>963826.3754199999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1169759.17482</v>
+        <v>1161322.4619</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1349166.99251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1386955.3994</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1293701.586</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-18890.42837999999</v>
+        <v>-18064.77062</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-30777.48065</v>
+        <v>-26964.16805</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-40864.28296</v>
+        <v>-38147.15028999999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-61453.47428</v>
+        <v>-57648.65271000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-77409.185</v>
+        <v>-67158.55318</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-72652.42626000001</v>
+        <v>-55396.49316</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-84786.11717</v>
+        <v>-72062.98245</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-19668.68714000001</v>
+        <v>-29606.23702</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-25982.27882</v>
+        <v>-2490.471200000003</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-187835.63015</v>
+        <v>-186862.61399</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-379119.95102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-415080.04318</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>259284.051</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>14798.25389</v>
+        <v>15781.13565</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>14635.50155</v>
+        <v>16603.32216</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>17066.15909</v>
+        <v>29204.8077</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>15520.98716</v>
+        <v>20045.11261</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>32562.33977</v>
+        <v>28798.78086</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>34931.38459</v>
+        <v>37669.71051999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>53963.97452</v>
+        <v>52453.47777999999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>42391.93574</v>
+        <v>55395.28845</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>76569.74296999998</v>
+        <v>80585.92232999999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>150923.36977</v>
+        <v>134269.60163</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>147304.72709</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>176005.4143</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>148638.127</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>632.1568400000001</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>368.08202</v>
+        <v>0</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>0.17346</v>
+        <v>7650.17346</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>43.41207</v>
+        <v>1352.22352</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>107.50617</v>
+        <v>0.8354</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>28.42723</v>
+        <v>109.26598</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>22.32903</v>
+        <v>2801.28753</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1050.19553</v>
+        <v>11811.6882</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>518.76467</v>
+        <v>629.04161</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>0.2543</v>
+        <v>199.9538</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>19.58838</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>269.64872</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>96.66500000000001</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,206 +1856,236 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>2515.108</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>3648.86351</v>
+        <v>4039.66244</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>3593.76715</v>
+        <v>3768.55889</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>3201.31294</v>
+        <v>3956.48673</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>4174.44322</v>
+        <v>4278.88112</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>5056.087189999999</v>
+        <v>5304.70208</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>6280.31682</v>
+        <v>7961.12809</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>9414.60944</v>
+        <v>11496.56254</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>6672.95688</v>
+        <v>12185.08134</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>13700.1363</v>
+        <v>23892.8141</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>30686.95479</v>
+        <v>42923.03347000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>28972.75606</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>56816.79366</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>35210.104</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>132.72972</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>340.35022</v>
+        <v>42.08195</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>413.88902</v>
+        <v>413.1976</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>24.45023</v>
+        <v>24.69644</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>51.79889</v>
+        <v>21.97328</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>148.39632</v>
+        <v>142.33488</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>360.25602</v>
+        <v>421.30584</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>163.31828</v>
+        <v>155.97003</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>191.42118</v>
+        <v>198.8507</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>214.03346</v>
+        <v>225.39285</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>4371.64134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>4414.585690000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>2166.644</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>375.31403</v>
+        <v>443.40262</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>416.38469</v>
+        <v>457.12469</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>472.44244</v>
+        <v>536.59934</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>578.3773299999999</v>
+        <v>574.50928</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>657.99806</v>
+        <v>506.97172</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>547.7585300000001</v>
+        <v>607.8122499999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>694.03652</v>
+        <v>571.34803</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>515.7956999999999</v>
+        <v>400.24495</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>672.47776</v>
+        <v>551.8961999999999</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>820.9168199999999</v>
+        <v>479.92305</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1262.74886</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>2117.52423</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>484.65</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>697.4803400000001</v>
+        <v>246.57585</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>388.10423</v>
+        <v>86.37474</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1216.32892</v>
+        <v>1222.70448</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>300.70454</v>
+        <v>720.72347</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1033.3611</v>
+        <v>525.80161</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>303.1930199999999</v>
+        <v>965.53254</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2282.97154</v>
+        <v>2288.79263</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>397.7208</v>
+        <v>298.99533</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>4224.24006</v>
+        <v>661.6962900000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1183.98145</v>
+        <v>1076.32448</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1897.85342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1984.82563</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1845.381</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2458.67613</v>
+        <v>4289.31973</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1386.19321</v>
+        <v>3738.92668</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2612.86044</v>
+        <v>5065.508250000001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1103.34907</v>
+        <v>3216.92334</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>3960.6945</v>
+        <v>5395.69405</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>7432.88432</v>
+        <v>11610.80947</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>14863.9068</v>
+        <v>17880.09231</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>10792.98345</v>
+        <v>13391.33704</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>15379.3123</v>
+        <v>20493.24256</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>69787.18965</v>
+        <v>57055.03195</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>27840.0784</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>33913.29989</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>54730.606</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>128.96779</v>
@@ -2057,7 +2103,7 @@
         <v>242.41625</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>1.41456</v>
+        <v>2.41891</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>9.175000000000001</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>710.3573699999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>862.605</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>43.42376</v>
@@ -2113,173 +2164,198 @@
       <c r="M34" s="48" t="n">
         <v>28.31735</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>6680.64177</v>
+        <v>5824.896900000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>7954.91365</v>
+        <v>8322.548830000002</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>8645.028900000003</v>
+        <v>9856.014869999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>8910.998879999999</v>
+        <v>9491.903620000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>21043.2033</v>
+        <v>16391.11216</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>19905.61419</v>
+        <v>15987.0288</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>25798.8451</v>
+        <v>16467.06883</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>22006.92882</v>
+        <v>16359.93528</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>40865.01676000001</v>
+        <v>33140.00693</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>46912.05334</v>
+        <v>30991.95607</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>82201.38591</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>75750.06176000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>50726.364</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>6512.22921</v>
+        <v>7808.7986</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>7656.87833</v>
+        <v>9927.166069999999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>7015.73474</v>
+        <v>12972.47603</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>4888.24109</v>
+        <v>6475.71519</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>8836.179029999999</v>
+        <v>11124.69801</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>10016.2054</v>
+        <v>12577.43539</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>15245.54098</v>
+        <v>25476.79267</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>16612.97406</v>
+        <v>22606.50295</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>28222.37176</v>
+        <v>29519.86473</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>61072.20588999999</v>
+        <v>66714.85742999999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>72246.42465</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>88202.96232999998</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>51651.343</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>863.60798</v>
+        <v>862.85831</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>993.3362099999999</v>
+        <v>937.79591</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>943.63427</v>
+        <v>952.3089</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1082.63617</v>
+        <v>1101.2008</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1050.20986</v>
+        <v>1001.74997</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1303.08106</v>
+        <v>1251.18056</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1030.35392</v>
+        <v>1045.58866</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1030.49417</v>
+        <v>1082.75314</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>5196.05996</v>
+        <v>5184.166770000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2411.55344</v>
+        <v>2373.81645</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>2388.850289999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>2513.25695</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1312.566</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>716.13178</v>
+        <v>858.9689199999999</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>4138.63346</v>
+        <v>4327.51156</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1428.72915</v>
+        <v>1645.30748</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>836.7481100000001</v>
+        <v>823.54549</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2846.4089</v>
+        <v>2214.96788</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>1882.31024</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>815.3684499999999</v>
+        <v>790.38695</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>804.36505</v>
+        <v>971.3980499999999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>2097.71659</v>
+        <v>2089.92959</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>4481.06026</v>
+        <v>3403.01257</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>4633.89299</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>7649.961969999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>4887.253</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>3.33182</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>52.43732</v>
+        <v>52.35659</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>125.34221</v>
@@ -2294,7 +2370,7 @@
         <v>24.77167</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>33.02364</v>
+        <v>111.70311</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>290.18933</v>
@@ -2303,55 +2379,65 @@
         <v>55.94239999999999</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>146.51178</v>
+        <v>33.48937</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>782.85398</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>743.92037</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>92.90900000000001</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>2470.61332</v>
+        <v>4499.47481</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1254.0262</v>
+        <v>3398.46876</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1531.61781</v>
+        <v>7665.18528</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1303.41959</v>
+        <v>2885.58885</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>3646.50568</v>
+        <v>6666.40474</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>4262.26541</v>
+        <v>7297.80306</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>12005.18568</v>
+        <v>18431.76734</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>12639.99233</v>
+        <v>14152.48762</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>18291.45077</v>
+        <v>15631.30093</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>44499.7041</v>
+        <v>48589.06423</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>29391.58029</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>40609.94148</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>35677.243</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>25.24747</v>
@@ -2369,10 +2455,10 @@
         <v>188.58087</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>10.46376</v>
+        <v>3.26616</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>10.92614</v>
+        <v>10.5</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1224.94764</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>731.124</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>36.59664</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2396.7002</v>
+        <v>1522.32063</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1120.58857</v>
+        <v>1113.17668</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>2879.2704</v>
+        <v>2477.19126</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1419.47329</v>
+        <v>1419.41612</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1062.83596</v>
+        <v>1011.35679</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2533.31178</v>
+        <v>2118.10222</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1349.13087</v>
+        <v>5085.29433</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1847.93318</v>
+        <v>6109.67481</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>2581.202040000001</v>
+        <v>6558.52504</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>6547.47739</v>
+        <v>9329.57589</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>33824.29946</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>35460.93392</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>8950.248</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>13344.81273</v>
+        <v>15584.10729</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>11304.42194</v>
+        <v>13911.11001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>15087.35327</v>
+        <v>18883.13422</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>17431.26678</v>
+        <v>21555.47899</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>23517.37604</v>
+        <v>26760.1245</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>26230.24381</v>
+        <v>39781.41971</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>34370.48918</v>
+        <v>51090.69284</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>35923.48265</v>
+        <v>53709.39909</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>56804.84338</v>
+        <v>68786.00189</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>112527.84283</v>
+        <v>111741.29095</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>107678.21459</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>124785.5398</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>99273.342</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>12624.63469</v>
+        <v>13578.00395</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>10578.85144</v>
+        <v>12907.19074</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>14388.22738</v>
+        <v>17610.47521</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>16923.89439</v>
+        <v>20680.25871</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>22066.54354</v>
+        <v>25035.31242</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>24446.84619</v>
+        <v>37264.57709000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>32822.10131000001</v>
+        <v>48425.13943</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>33321.66152</v>
+        <v>48210.99167</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>53793.20834</v>
+        <v>62515.45041999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>102411.05898</v>
+        <v>101733.99857</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>104486.92751</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>121716.20275</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>95350.764</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>720.17804</v>
+        <v>2006.10334</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>725.5705</v>
+        <v>1003.91927</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>699.12589</v>
+        <v>1272.65901</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>507.3723899999999</v>
+        <v>875.22028</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1450.8325</v>
+        <v>1724.81208</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1783.39762</v>
+        <v>2516.842619999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1548.38787</v>
+        <v>2665.55341</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2601.82113</v>
+        <v>5498.40742</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>3011.63504</v>
+        <v>6270.551469999999</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>10116.78385</v>
+        <v>10007.29238</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>3191.28708</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3069.33705</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>3922.578</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-23949.21643</v>
+        <v>-25676.54086</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-35103.27937</v>
+        <v>-34199.12197</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-45901.21188</v>
+        <v>-40797.95284000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-68251.99499000001</v>
+        <v>-65634.73428</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-77200.40029999999</v>
+        <v>-76244.59483</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-73967.49088</v>
+        <v>-70085.63773999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-80438.17281</v>
+        <v>-96176.99017999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-29813.20811</v>
+        <v>-50526.85061</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-34439.75098999999</v>
+        <v>-20210.41549000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-210512.3091</v>
+        <v>-231049.16074</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-411739.86317</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-452063.1310100001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>256997.493</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>11715.22138</v>
+        <v>10490.48597</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>14535.62943</v>
+        <v>14300.04794</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>13417.09064</v>
+        <v>13822.46077</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>18345.34079</v>
+        <v>18708.34118</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>20570.79345</v>
+        <v>18567.30063</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>23839.49445</v>
+        <v>22792.63653</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>31373.19054</v>
+        <v>32858.54421</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>35525.72793</v>
+        <v>61028.67611</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>49890.45543</v>
+        <v>50556.82598</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>68235.41095999999</v>
+        <v>64488.2218</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>80526.36786000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>82153.05709999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>81061.68700000001</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>197.98944</v>
+        <v>124.31714</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>112.75431</v>
+        <v>115.7058</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>399.10374</v>
+        <v>296.93989</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1062.80988</v>
+        <v>1221.88528</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>429.02626</v>
+        <v>442.8355</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1374.56672</v>
+        <v>1465.45799</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>657.6425300000001</v>
+        <v>715.64567</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>751.50986</v>
+        <v>1170.79679</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>476.70853</v>
+        <v>715.68709</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>1289.12787</v>
+        <v>1282.37787</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1927.50777</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1843.10422</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>645.6</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>11517.23194</v>
+        <v>10366.16883</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>14422.87512</v>
+        <v>14184.34214</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>13017.9869</v>
+        <v>13525.52088</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>17282.53091</v>
+        <v>17486.4559</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>20141.76719</v>
+        <v>18124.46513</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>22464.92773</v>
+        <v>21327.17854</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>30715.54801</v>
+        <v>32142.89854</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>34774.21807000001</v>
+        <v>59857.87932000001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>49413.74690000001</v>
+        <v>49841.13889</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>66946.28309</v>
+        <v>63205.84393</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>78598.86009</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>80309.95288</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>80416.087</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>15421.41565</v>
+        <v>14472.81416</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>17427.30521</v>
+        <v>17277.00166</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>104387.92096</v>
+        <v>109484.09471</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>20118.93303</v>
+        <v>21134.5368</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>22850.65013</v>
+        <v>26571.82483</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>68063.35825</v>
+        <v>65089.11869</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>28184.45338</v>
+        <v>29526.19367</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>98388.34879999999</v>
+        <v>96777.87067999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>41821.98801000001</v>
+        <v>43284.76841</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>127393.32624</v>
+        <v>111691.19971</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>70856.85077</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>79143.25431</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>59386.523</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>622.6147199999999</v>
+        <v>514.70685</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>196.71972</v>
+        <v>126.54339</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>697.3781</v>
+        <v>447.31598</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>425.5901700000001</v>
+        <v>850.8055900000001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>295.73344</v>
+        <v>392.79794</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1057.53331</v>
+        <v>1726.88378</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1004.17128</v>
+        <v>948.77482</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1609.48901</v>
+        <v>1667.00995</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>4278.15011</v>
+        <v>4094.45277</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>801.3456199999999</v>
+        <v>568.55181</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1581.58284</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1088.00265</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>4534.156</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1821.27302</v>
+        <v>1943.88881</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>2277.71877</v>
+        <v>1970.55663</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>3751.83292</v>
+        <v>4000.35512</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1300.63565</v>
+        <v>1569.79887</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1782.60078</v>
+        <v>1818.82457</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2112.83047</v>
+        <v>2148.30913</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1911.85146</v>
+        <v>2164.32486</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2436.22927</v>
+        <v>2174.31289</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2161.64468</v>
+        <v>5241.59321</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2247.34792</v>
+        <v>1589.13949</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>4185.62819</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1749.11185</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>4881.466</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>12977.52791</v>
+        <v>12014.2185</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>14952.86672</v>
+        <v>15179.90164</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>99938.70994</v>
+        <v>105036.42361</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>18392.70721</v>
+        <v>18713.93234</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>20772.31591</v>
+        <v>24360.20232</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>64892.99447</v>
+        <v>61213.92578</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>25268.43064</v>
+        <v>26413.09399</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>94342.63051999999</v>
+        <v>92936.54783999998</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>35382.19322</v>
+        <v>33948.72243</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>124344.6327</v>
+        <v>109533.50841</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>65089.63973999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>76306.13980999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>49970.901</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-27655.4107</v>
+        <v>-29658.86905</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-37994.95515</v>
+        <v>-37176.07569</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-136872.0422</v>
+        <v>-136459.58678</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-70025.58723</v>
+        <v>-68060.92989999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-79480.25698000001</v>
+        <v>-84249.11903</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-118191.35468</v>
+        <v>-112382.1199</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-77249.43564999998</v>
+        <v>-92844.63963999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-92675.82898000001</v>
+        <v>-86276.04518</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-26371.28357</v>
+        <v>-12938.35792</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-269670.22438</v>
+        <v>-278252.13865</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-402070.34608</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-449053.32822</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>278672.657</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>11538.63728</v>
+        <v>11493.92089</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>12602.35239</v>
+        <v>12988.75343</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>13687.33899</v>
+        <v>14242.17868</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>15595.36089</v>
+        <v>15944.22462</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>19442.19053</v>
+        <v>19695.90375</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>21279.59181</v>
+        <v>22273.55898</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>24060.91296</v>
+        <v>24863.10086</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>21640.72911</v>
+        <v>23558.28234</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>29020.20725</v>
+        <v>31368.43997</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>44126.5448</v>
+        <v>41376.89215</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>41546.74086</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>44798.05183</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>68797.822</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-39194.04798</v>
+        <v>-41152.78994</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-50597.30754</v>
+        <v>-50164.82911999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-150559.38119</v>
+        <v>-150701.76546</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-85620.94811999999</v>
+        <v>-84005.15452</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-98922.44750999998</v>
+        <v>-103945.02278</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-139470.94649</v>
+        <v>-134655.67888</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-101310.34861</v>
+        <v>-117707.7405</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-114316.55809</v>
+        <v>-109834.32752</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-55391.49082000001</v>
+        <v>-44306.79789000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-313796.7691799999</v>
+        <v>-319629.0307999999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-443617.08694</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-493851.38005</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>209874.835</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>2964</v>
+        <v>2929</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>3141</v>
+        <v>3104</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3180</v>
+        <v>3149</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3290</v>
+        <v>3238</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3505</v>
+        <v>3421</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3610</v>
+        <v>3537</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3740</v>
+        <v>3692</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3289</v>
+        <v>3250</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>3769</v>
+        <v>3569</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3925</v>
+        <v>3842</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>4130</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>